--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/52.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/52.xlsx
@@ -479,13 +479,13 @@
         <v>-6.058721374209233</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.160503719955038</v>
+        <v>-9.19040653964554</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.744578252104774</v>
+        <v>-1.754122540876393</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.869615752063689</v>
+        <v>-7.921029225323148</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.676386489188411</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.804815219704903</v>
+        <v>-9.829913164252492</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.748571404471501</v>
+        <v>-1.754855709835529</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.699599107361035</v>
+        <v>-7.737632247116249</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.24576023487899</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.36326739741873</v>
+        <v>-10.3946365550275</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.750286496143767</v>
+        <v>-1.757866939489126</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.502298103536223</v>
+        <v>-7.539270766761257</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.815213049306817</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.00615183615884</v>
+        <v>-11.03519056386179</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.748047712357832</v>
+        <v>-1.754161817784918</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.072752739602032</v>
+        <v>-7.105994096517175</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.392009276654445</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.63424197268781</v>
+        <v>-11.66974829799457</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.801137000381031</v>
+        <v>-1.807028536659808</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.821053217469848</v>
+        <v>-6.852788959558192</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.997114346361482</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.42873527833512</v>
+        <v>-12.4624610504554</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.592511154598126</v>
+        <v>-1.600759305388413</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.44036832774098</v>
+        <v>-6.470624639608208</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.637030111465676</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.07112220956725</v>
+        <v>-13.10575135058361</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.497081359184784</v>
+        <v>-1.504674894832986</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.790283122437914</v>
+        <v>-5.827949677713559</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.327212408518867</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.6877565811097</v>
+        <v>-13.72359021398751</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.387878461181947</v>
+        <v>-1.396964519354105</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.379564489990125</v>
+        <v>-5.409532771194836</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.071170302539124</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.32615035997511</v>
+        <v>-14.36403948439906</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.310018536182203</v>
+        <v>-1.318305963881015</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.988981819312911</v>
+        <v>-5.023610960329276</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.870447491604332</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.16898044771407</v>
+        <v>-15.2065160799613</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.188796904170661</v>
+        <v>-1.19333993325674</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.425960427907324</v>
+        <v>-4.461113261037358</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.722135859689271</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.94286646868849</v>
+        <v>-15.97841207090378</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9518393150382607</v>
+        <v>-0.9578224974369295</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.894085624962202</v>
+        <v>-3.92494418276015</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.618990703160534</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.70841269275274</v>
+        <v>-16.74435106405328</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8592898262500991</v>
+        <v>-0.8642387167242715</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.419672939189416</v>
+        <v>-3.447991590236069</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.560295971361604</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.43174933245527</v>
+        <v>-17.46432298192548</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6807631847003225</v>
+        <v>-0.6879901358689552</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.85294642607962</v>
+        <v>-2.885690275486776</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.540549265543398</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.20453559999099</v>
+        <v>-18.24061798662279</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4940014846631001</v>
+        <v>-0.4993955134338912</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.570414530755171</v>
+        <v>-2.6026477803515</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-2.552807624732236</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.0733015396594</v>
+        <v>-19.10993380301056</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3299156531477473</v>
+        <v>-0.3344455899309845</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.010011599917928</v>
+        <v>-2.045256079167855</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.589096979510036</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.90009355641725</v>
+        <v>-19.93464414361656</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.08608460502344098</v>
+        <v>-0.08968498830491564</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.736762147308264</v>
+        <v>-1.770645027062651</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-2.638467835897351</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.64682614129794</v>
+        <v>-20.6850949425043</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02726855298022332</v>
+        <v>0.02698052231770535</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.298523494287167</v>
+        <v>-1.333506127480259</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-2.695957844669799</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.37550444055988</v>
+        <v>-21.41846028618359</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2986850831920465</v>
+        <v>0.2961058995322264</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.9185586812145931</v>
+        <v>-0.9549290985089081</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-2.75537226506792</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.00839945223176</v>
+        <v>-22.04770254536263</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4480682586161409</v>
+        <v>0.4448999213284432</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6876235513893869</v>
+        <v>-0.7237975841410761</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.81176496616939</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.62638233096692</v>
+        <v>-22.66542357804094</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6352358200414567</v>
+        <v>0.632263867296385</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.354398259461775</v>
+        <v>-0.3944607061574568</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.862556823943976</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.08164097768226</v>
+        <v>-23.12162487056089</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8065486027254424</v>
+        <v>0.8051608186242194</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2356510726873196</v>
+        <v>-0.2735532894141166</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.905048470901038</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.5226551989058</v>
+        <v>-23.56177499979688</v>
       </c>
       <c r="F23" t="n">
-        <v>0.890876125329</v>
+        <v>0.8910332329631007</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.09781530836962754</v>
+        <v>-0.1395012006176833</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.942082948864885</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.00659908114736</v>
+        <v>-24.04221014487686</v>
       </c>
       <c r="F24" t="n">
-        <v>1.036907671225612</v>
+        <v>1.03779794781885</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1254400673656695</v>
+        <v>-0.1567044865517114</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.976303956823961</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.25380794340483</v>
+        <v>-24.28742897710239</v>
       </c>
       <c r="F25" t="n">
-        <v>1.090625389785215</v>
+        <v>1.090847958933524</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06039207916979027</v>
+        <v>0.02436206174936013</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.009895770903857</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.52463531998878</v>
+        <v>-24.56050822977511</v>
       </c>
       <c r="F26" t="n">
-        <v>1.227138831515892</v>
+        <v>1.227034093093158</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.04090306791664432</v>
+        <v>-0.07612136256088745</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.044756947699162</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.57358744031399</v>
+        <v>-24.60808565830194</v>
       </c>
       <c r="F27" t="n">
-        <v>1.19511505876503</v>
+        <v>1.194696105074095</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2406392400700172</v>
+        <v>-0.2750981811494402</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.079864512878193</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.6583077320028</v>
+        <v>-24.6942330110005</v>
       </c>
       <c r="F28" t="n">
-        <v>1.124390438814026</v>
+        <v>1.124586823356652</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5926781711811895</v>
+        <v>-0.625107805320145</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.11717618705026</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.47272433922134</v>
+        <v>-24.51079675588507</v>
       </c>
       <c r="F29" t="n">
-        <v>1.135518896229493</v>
+        <v>1.132939712569673</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.6377287852595689</v>
+        <v>-0.6664271130886325</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.157593705659603</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.21128414377491</v>
+        <v>-24.24826989930278</v>
       </c>
       <c r="F30" t="n">
-        <v>1.023029830213383</v>
+        <v>1.020712492610397</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9549814677202749</v>
+        <v>-0.9835619648237629</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.200515697509283</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.99168694821064</v>
+        <v>-24.03096385673582</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9530383792215154</v>
+        <v>0.9497391189054004</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.163554944291813</v>
+        <v>-1.186649766504618</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.244436910375438</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.64460999987648</v>
+        <v>-23.68308827792831</v>
       </c>
       <c r="F32" t="n">
-        <v>0.931213510384358</v>
+        <v>0.9292889418666243</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.410174652921407</v>
+        <v>-1.433387305859787</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.284720751697395</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.3129950611984</v>
+        <v>-23.35307060019692</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8933898474746114</v>
+        <v>0.8902869717011223</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.686317504459093</v>
+        <v>-1.706780773800711</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.319278497105238</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.86721524174047</v>
+        <v>-22.91098281014036</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8333223620367721</v>
+        <v>0.8330997928884628</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.919491418070234</v>
+        <v>-1.935634227474083</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.345296113552947</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.50199236166768</v>
+        <v>-22.5422250083003</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7503957158372793</v>
+        <v>0.7492697777928908</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.187346841909108</v>
+        <v>-2.195045115980043</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.359056097782191</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.93366858761119</v>
+        <v>-21.97679463317184</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7974494522504427</v>
+        <v>0.7957867297895436</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.477865041967009</v>
+        <v>-2.479292102976758</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.357682138177095</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.48804587578736</v>
+        <v>-21.53314885907711</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8140897691622766</v>
+        <v>0.8114713085939314</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.661667881562002</v>
+        <v>-2.663959034559304</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.338032798800103</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.0021250558167</v>
+        <v>-21.04581407039954</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9100956259006538</v>
+        <v>0.9078044729033518</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.794083432503219</v>
+        <v>-2.797173215973867</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.302345052872728</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.51770985067283</v>
+        <v>-20.56519563307977</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9286343267245379</v>
+        <v>0.9256361893737827</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.846007505573505</v>
+        <v>-2.84414839856998</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.255912276478325</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.86190330902793</v>
+        <v>-19.91082924474746</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9502628110190694</v>
+        <v>0.9486262731638536</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.961979124145514</v>
+        <v>-2.957239710516809</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.205504521366101</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.32620555365303</v>
+        <v>-19.3749874740413</v>
       </c>
       <c r="F41" t="n">
-        <v>1.022650153430973</v>
+        <v>1.021105261695649</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.115669667204537</v>
+        <v>-3.109411546446192</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.159722980913637</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.56487505110382</v>
+        <v>-18.61198115672834</v>
       </c>
       <c r="F42" t="n">
-        <v>1.000367053994355</v>
+        <v>0.9998564541835278</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.330147772357693</v>
+        <v>-3.323562344028305</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.125885278980241</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.04905141144265</v>
+        <v>-18.09939131586909</v>
       </c>
       <c r="F43" t="n">
-        <v>1.101086139755754</v>
+        <v>1.097433387262912</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.370498249715893</v>
+        <v>-3.365968312932655</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.113954455261943</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.48529685107793</v>
+        <v>-17.53233749518825</v>
       </c>
       <c r="F44" t="n">
-        <v>1.061717585110683</v>
+        <v>1.063930184290935</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.523115223941894</v>
+        <v>-3.521164470818476</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.133914504253902</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.84455955000385</v>
+        <v>-16.89665382301108</v>
       </c>
       <c r="F45" t="n">
-        <v>1.075150287826294</v>
+        <v>1.074089811296115</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.696247836720879</v>
+        <v>-3.691652438423433</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.192160072808048</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.36941369527193</v>
+        <v>-16.42165198361042</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9122689481723804</v>
+        <v>0.917401130886337</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.854141008992095</v>
+        <v>-3.847450842239974</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.292129971118642</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.76804494884293</v>
+        <v>-15.81693160765393</v>
       </c>
       <c r="F47" t="n">
-        <v>0.986554674496334</v>
+        <v>0.9898408425096074</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.838953937695693</v>
+        <v>-3.838338599462132</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.431637434487803</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.1367995673291</v>
+        <v>-15.19379036159914</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9637347906432056</v>
+        <v>0.9642192058483494</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.988337113119788</v>
+        <v>-3.990117666306262</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.607481181510644</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.62549277214833</v>
+        <v>-14.67944615215909</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8888599106913742</v>
+        <v>0.8926959554239999</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.090705829039244</v>
+        <v>-4.090103583108524</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.815775259077302</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.10473333431584</v>
+        <v>-14.15770479161346</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8840681278513024</v>
+        <v>0.8890955721425252</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.175831982116147</v>
+        <v>-4.180375011202226</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.04829993474631</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.62382686633356</v>
+        <v>-13.67497849353618</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9923283800495353</v>
+        <v>0.9956800095770172</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.274731237782546</v>
+        <v>-4.282141481190963</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.295368646415454</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.00062015876455</v>
+        <v>-13.05852741423351</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8868044191452231</v>
+        <v>0.8926043093041078</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.383318797551821</v>
+        <v>-4.392300117301246</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.544479825646266</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.59168207950324</v>
+        <v>-12.64550453648557</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8983780148573089</v>
+        <v>0.9038898743536756</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.577032510398</v>
+        <v>-4.587886029453792</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.784931298746028</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.97252089351233</v>
+        <v>-12.03194685611092</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8713685940948281</v>
+        <v>0.8748773312564107</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.748580954533137</v>
+        <v>-4.754551044628964</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.010293507088589</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.58735843621159</v>
+        <v>-11.64496456871519</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8290935482188947</v>
+        <v>0.8309002860110528</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.966436873819458</v>
+        <v>-4.972577163852228</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.213712692410879</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.20779948452711</v>
+        <v>-11.266125693687</v>
       </c>
       <c r="F56" t="n">
-        <v>0.7550565756489337</v>
+        <v>0.7580416206968472</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.174133166100601</v>
+        <v>-5.18345488572391</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.390532202557262</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.65382487438515</v>
+        <v>-10.71338176001217</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7345278447931073</v>
+        <v>0.7366095209449417</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.2527000754538</v>
+        <v>-5.261170795392396</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.53631269258369</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.41515219358049</v>
+        <v>-10.47224772627326</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6554110587205566</v>
+        <v>0.6601504723492615</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.400800205199404</v>
+        <v>-5.411954847220555</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.649729791839971</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.907144658715834</v>
+        <v>-9.963533207055148</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6823812025745123</v>
+        <v>0.686361262638397</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.618420463034576</v>
+        <v>-5.630714135402956</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.73549395902282</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.768745925375947</v>
+        <v>-9.821442444313895</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6687390230134338</v>
+        <v>0.6743556209325342</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.677231087399608</v>
+        <v>-5.689996082670292</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.797102248809902</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.39019508101028</v>
+        <v>-9.441451446635638</v>
       </c>
       <c r="F61" t="n">
-        <v>0.705816424661202</v>
+        <v>0.7132135757667772</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.688935606140112</v>
+        <v>-5.702603970306874</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.838844359125281</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.115714951933493</v>
+        <v>-9.166264333205397</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6679011156315633</v>
+        <v>0.675848143456491</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.78721952357295</v>
+        <v>-5.807093639286689</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.863191740064887</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.802403052628147</v>
+        <v>-8.859341477686813</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6290431607973204</v>
+        <v>0.6373829577074999</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.779573618713381</v>
+        <v>-5.799198980673129</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.873545320686038</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.499447164870606</v>
+        <v>-8.558820758257832</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5272112292943749</v>
+        <v>0.5365198566148422</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.711899505324499</v>
+        <v>-5.733711281858815</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.878374107129313</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.381956839168955</v>
+        <v>-8.437978803028701</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3897813263647764</v>
+        <v>0.4002027994267904</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.732807912962736</v>
+        <v>-5.755470689181764</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.882852558376108</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.185114065943605</v>
+        <v>-8.242405983178998</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3444819585324042</v>
+        <v>0.3544321086921161</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.720435686777305</v>
+        <v>-5.74504921611975</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.891422773470319</v>
       </c>
       <c r="E67" t="n">
-        <v>-8.053850637652458</v>
+        <v>-8.110029709146305</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2529929462744225</v>
+        <v>0.2644748958666162</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.674350780774429</v>
+        <v>-5.699658202167486</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.905606979705751</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.912951274469803</v>
+        <v>-7.97156551429221</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1972851976828781</v>
+        <v>0.2083220089784531</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.623578830354215</v>
+        <v>-5.649999097488818</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.926042766789833</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.849152482722071</v>
+        <v>-7.910516106141242</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1894298159778424</v>
+        <v>0.1993930584403959</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.537968262072169</v>
+        <v>-5.56589414403357</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.959277327306562</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.858277817802755</v>
+        <v>-7.920243687152644</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08442954718719933</v>
+        <v>0.09507358939752263</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.433753531452029</v>
+        <v>-5.459126414359294</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.007373705140253</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.923346562926133</v>
+        <v>-7.981450202937713</v>
       </c>
       <c r="F71" t="n">
-        <v>0.08575186977421367</v>
+        <v>0.0958591275680262</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.263972548200526</v>
+        <v>-5.288455154514553</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.071630938490298</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.942801724948938</v>
+        <v>-8.005513855560805</v>
       </c>
       <c r="F72" t="n">
-        <v>0.008062144711411178</v>
+        <v>0.01683398761536764</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.177078934239989</v>
+        <v>-5.198785972351572</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.150439886199706</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.149594648334002</v>
+        <v>-8.208496918818927</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.03023284110063757</v>
+        <v>-0.02294042841779615</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.90918423349259</v>
+        <v>-4.931087656146798</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.240254817926572</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.280648599779679</v>
+        <v>-8.341069577394245</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.07859580779797366</v>
+        <v>-0.06691747366315401</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.777724420658819</v>
+        <v>-4.800295550757955</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.344698446451642</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.615628260288082</v>
+        <v>-8.67174187026772</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1650442834618909</v>
+        <v>-0.1567175788545531</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.530855958275232</v>
+        <v>-4.551371596828218</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.462584258358205</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.876374563683898</v>
+        <v>-8.933561742496558</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1540074721663158</v>
+        <v>-0.1438478451611364</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.233582129951</v>
+        <v>-4.249109601121288</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.592457061343339</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.391072265300675</v>
+        <v>-9.446557444743911</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.228843075209622</v>
+        <v>-0.2208960473846943</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.014272965049247</v>
+        <v>-4.032392712182196</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.731045332130534</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.844746743372168</v>
+        <v>-9.900166461301193</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1799433240957752</v>
+        <v>-0.1742481723596243</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.919667984714934</v>
+        <v>-3.935129994371013</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.872990899379085</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.28407205752913</v>
+        <v>-10.33747556082053</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2470020992510961</v>
+        <v>-0.2407047015842259</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.769027948218034</v>
+        <v>-3.782460650933645</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.023505764725194</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.88218082055054</v>
+        <v>-10.93682809261191</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3012696945300506</v>
+        <v>-0.2956923735194753</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.440555162221969</v>
+        <v>-3.454144972571681</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.183420703209841</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.56697372068702</v>
+        <v>-11.62371576120306</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3191145033033232</v>
+        <v>-0.3144798280973523</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.28287146679622</v>
+        <v>-3.298058538092623</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.353867718086918</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.40671402495533</v>
+        <v>-12.46065431266324</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3862387399728528</v>
+        <v>-0.3830442180794716</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.943086931144903</v>
+        <v>-2.957527741179327</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.534280394634068</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.32283482400227</v>
+        <v>-13.37613358887094</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3662206089278537</v>
+        <v>-0.3645055172555876</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.792695648401996</v>
+        <v>-2.803706275091888</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.719369355860803</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.27698876280443</v>
+        <v>-14.33377008022899</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4195324660993622</v>
+        <v>-0.4167438055940745</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.519694949546324</v>
+        <v>-2.532669421662475</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.915925614289596</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.49778054128118</v>
+        <v>-15.55301696697042</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4750569224511225</v>
+        <v>-0.4753056762051153</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.322079730453311</v>
+        <v>-2.336009940676908</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.124706754825283</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.55968413247074</v>
+        <v>-16.61358514327012</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.570617640892881</v>
+        <v>-0.5708663946468738</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.084716279932817</v>
+        <v>-2.1011209353935</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.346230798078592</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.73723203466126</v>
+        <v>-17.79443230577676</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5002988823299703</v>
+        <v>-0.4998144671248265</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.023954902444367</v>
+        <v>-2.039953696516956</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.579546644393067</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.10931846477699</v>
+        <v>-19.16409665986678</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.655455763307266</v>
+        <v>-0.6552724710674818</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.993973528936814</v>
+        <v>-2.009775938466777</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.816914750038499</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.64460044981484</v>
+        <v>-20.70091044433711</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6373229238714754</v>
+        <v>-0.6364064626725545</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.980475364706994</v>
+        <v>-1.996042112785807</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.066057547133425</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.28189765859542</v>
+        <v>-22.3392157604365</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6794670467189916</v>
+        <v>-0.6818367535333439</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.992441729504332</v>
+        <v>-2.007890646857569</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.327785711986827</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.99180477893621</v>
+        <v>-24.04829806569826</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8197903485766116</v>
+        <v>-0.8198034408794533</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.031967391783503</v>
+        <v>-2.045963063521308</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.60302413716366</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.72987344268956</v>
+        <v>-25.78763668282725</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8685591766620412</v>
+        <v>-0.8693054379240196</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.09786095198591</v>
+        <v>-2.113741915332924</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.891809089993474</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.75589421514383</v>
+        <v>-27.81681270026638</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.041888173983653</v>
+        <v>-1.042267850766063</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.289466804074571</v>
+        <v>-2.304051629440254</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-10.1855276013877</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.8059524556155</v>
+        <v>-29.86523440288284</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.07008899430473</v>
+        <v>-1.071123286229227</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.354168964718382</v>
+        <v>-2.368295559484604</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.49351284952117</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.00748863996595</v>
+        <v>-32.06728118704411</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.311131381923749</v>
+        <v>-1.316054087792238</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.566683224445279</v>
+        <v>-2.580901465331394</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.81687531179332</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.26849006382351</v>
+        <v>-34.32790293411927</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.437995796460075</v>
+        <v>-1.44137361059324</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.783570313321313</v>
+        <v>-2.796793539191456</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-11.15221175545113</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.48157365928036</v>
+        <v>-36.54018789910277</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.607829148922945</v>
+        <v>-1.607737502803053</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.873134757061561</v>
+        <v>-2.890102381544438</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-11.49692753046546</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.8153290100294</v>
+        <v>-38.87264711187048</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.875723849670344</v>
+        <v>-1.874362250174805</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.130215215661694</v>
+        <v>-3.144525102667701</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.83004414785411</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.12034675604085</v>
+        <v>-41.1760545046324</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.889483859956998</v>
+        <v>-1.886904676297178</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.367591758485029</v>
+        <v>-3.375015094196288</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.15735427375053</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.45352604546486</v>
+        <v>-43.51060848585478</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.223154290181229</v>
+        <v>-2.218702907215042</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.439311393452005</v>
+        <v>-3.45618737181499</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.45826771563228</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.78649585804339</v>
+        <v>-45.83968988448932</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.265769735931047</v>
+        <v>-2.263020352334285</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.697858189970411</v>
+        <v>-3.71195860013095</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.73574415580851</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.32031468851685</v>
+        <v>-48.37066768524613</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.529055946078159</v>
+        <v>-2.523347702039166</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.738588344111021</v>
+        <v>-3.758855228910013</v>
       </c>
     </row>
   </sheetData>
